--- a/report_metodi/risultati_Martingala_parachute.xlsx
+++ b/report_metodi/risultati_Martingala_parachute.xlsx
@@ -1,37 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\melo\Bakarà\Counting_Bakar-\report_metodi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E0E5C2-EF5F-4A09-9B36-C4A647A846EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Simulazione</t>
+  </si>
+  <si>
+    <t>Bilancio_Finale</t>
+  </si>
+  <si>
+    <t>Partite negative</t>
+  </si>
+  <si>
+    <t>Partite positive</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Picco min</t>
+  </si>
+  <si>
+    <t>Picco max</t>
+  </si>
+  <si>
+    <t>Cigni neri&lt;=-400</t>
+  </si>
+  <si>
+    <t>Dev Standard</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +97,4013 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bilancio_Finale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$501</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="500"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$501</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="500"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-230</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-530</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-210</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-410</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-310</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-460</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-320</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-260</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-320</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-240</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-280</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-360</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-460</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-330</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-370</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-440</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-540</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-290</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-430</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-220</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-350</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-280</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-440</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-600</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-250</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-380</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-220</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-510</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-360</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-280</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-350</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-400</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-330</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-450</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-230</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-530</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-320</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-330</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-280</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-240</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-280</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-790</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-210</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-280</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-540</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-230</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-260</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-240</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-420</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-260</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-690</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-270</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-310</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-530</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-480</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-310</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-320</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-390</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-440</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-340</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-310</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-660</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-310</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-230</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-330</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-250</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-290</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-240</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-290</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-650</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-480</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-520</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-210</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-750</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-370</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-290</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-400</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-420</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-260</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-330</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-380</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>-610</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>-360</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>-400</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>-230</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>-450</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>-380</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>-440</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>-240</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>-240</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>-230</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>-250</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>-280</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>-280</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>-220</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>-580</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>-420</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>-270</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>-260</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>-460</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>-230</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>-230</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>-440</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>-520</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>-220</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>-360</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:noFill/>
+                    <a:miter lim="800000"/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:glow rad="63500">
+                      <a:schemeClr val="accent1">
+                        <a:satMod val="175000"/>
+                        <a:alpha val="25000"/>
+                      </a:schemeClr>
+                    </a:glow>
+                  </a:effectLst>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-820B-4A0B-9604-80072BB44C99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="1797613359"/>
+        <c:axId val="1797604719"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1797613359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1797604719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1797604719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1797613359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A406D6EB-CB99-ABD6-70FB-E0D847C81AB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,4032 +4390,4080 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Simulazione</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Bilancio_Finale</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>330</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-280</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-90</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-330</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="Q7" s="2">
+        <f>COUNTIF(B2:B501,"&lt;0")</f>
+        <v>270</v>
+      </c>
+      <c r="R7" s="2">
+        <f>COUNTIF(B2:B501,"&gt;0")</f>
+        <v>222</v>
+      </c>
+      <c r="S7" s="2">
+        <f>AVERAGE(B2:B501)</f>
+        <v>-44.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>200</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-470</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="Q9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>320</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="Q10" s="2">
+        <f>MINA(B2:B501)</f>
+        <v>-790</v>
+      </c>
+      <c r="R10">
+        <f>MAXA(B2:B501)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>210</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-230</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="Q12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>310</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="Q13" s="2">
+        <f>COUNTIF(B2:B501,"&lt;-400")</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>280</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>60</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="Q15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>90</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="Q16" s="2">
+        <f>INT(STDEVA(B2:B501))</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>160</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>250</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>200</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>160</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>110</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-530</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-180</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-210</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>30</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>120</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-10</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>150</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-90</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>290</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-160</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-600</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-410</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-160</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>10</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>180</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>210</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-20</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>30</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-70</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-300</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-310</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-460</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>300</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-320</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-30</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>40</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-190</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-20</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-50</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>30</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-260</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>210</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-80</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-50</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-40</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>140</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-320</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-240</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>20</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>40</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-280</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-20</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>60</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-160</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>250</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-10</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-50</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-50</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-180</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>280</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>100</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>320</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>160</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>90</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>320</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>160</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-10</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-100</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>50</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-30</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-40</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>210</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-30</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>280</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-60</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-130</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>70</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-110</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-30</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>260</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-70</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-170</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-360</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-30</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-90</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-60</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-100</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>170</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-40</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>270</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>290</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>60</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>90</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>330</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>90</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>30</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-70</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>30</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-460</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>120</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-60</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-190</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-330</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>260</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-80</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>190</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-130</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>300</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-90</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-190</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>270</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-10</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-60</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>250</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-370</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>120</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-440</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-180</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-200</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-90</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>290</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-540</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>190</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-60</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-120</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-290</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-300</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>160</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-190</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>250</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>290</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-430</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-220</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="n">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-350</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="n">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-160</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="n">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-200</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>130</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="n">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>300</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="n">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>240</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="n">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>70</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="n">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-280</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="n">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>160</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="n">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>100</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="n">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-70</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="n">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-440</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-30</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="n">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-600</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="n">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>310</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="n">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-120</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="n">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>250</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="n">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-180</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="n">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-160</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="n">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-250</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="n">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-380</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="n">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>80</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="n">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>240</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="n">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-220</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="n">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-510</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="n">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-170</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="n">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>70</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="n">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-90</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="n">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-360</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="n">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-280</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="n">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>260</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="n">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>0</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="n">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>190</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="n">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-350</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="n">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-140</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="n">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>300</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="n">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-300</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="n">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>110</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="n">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>170</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="n">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-10</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="n">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-80</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="n">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-90</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="n">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-60</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="n">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>120</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="n">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-400</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="n">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-330</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="n">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-450</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="n">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-180</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="n">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-230</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="n">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>20</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="n">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>220</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="n">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-120</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="n">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>200</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="n">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-50</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="n">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>290</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="n">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-160</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="n">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>100</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="n">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>80</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="n">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-50</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="n">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-100</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="n">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-190</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="n">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>60</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="n">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-190</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="n">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-530</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="n">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-140</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="n">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>240</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="n">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-90</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="n">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-170</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="n">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>0</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="n">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-40</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="n">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-320</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="n">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-110</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="n">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>140</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="n">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-330</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="n">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-140</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="n">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>50</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="n">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-280</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="n">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-200</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="n">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>150</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="n">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-300</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="n">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>210</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="n">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-240</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="n">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-280</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="n">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-40</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="n">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-790</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="n">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-120</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="n">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>260</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="n">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-210</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="n">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-80</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="n">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-130</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="n">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>10</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="n">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-280</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="n">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-80</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="n">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>20</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="n">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-540</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="n">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-230</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="n">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>120</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="n">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-150</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="n">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-40</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="n">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>160</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="n">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-140</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="n">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>290</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="n">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-70</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="n">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-180</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="n">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-260</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="n">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-240</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="n">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-130</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="n">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>300</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="n">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-10</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="n">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-10</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="n">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-420</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="n">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-130</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="n">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-260</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="n">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>60</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="n">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-120</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="n">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>70</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" t="n">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-690</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" t="n">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-130</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" t="n">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-20</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" t="n">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>320</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="n">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>20</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="n">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>300</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="n">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>30</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="n">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>180</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="n">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>100</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="n">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-270</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" t="n">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-310</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" t="n">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>190</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="n">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>90</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="n">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>160</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="n">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-30</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="n">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>10</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="n">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>30</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" t="n">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>140</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="n">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-530</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="n">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-200</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="n">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-170</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" t="n">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-480</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="n">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-60</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" t="n">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>150</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" t="n">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>170</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" t="n">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>120</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" t="n">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-310</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" t="n">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-320</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" t="n">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-60</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" t="n">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>200</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="n">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>210</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" t="n">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>190</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" t="n">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>50</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="n">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-390</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" t="n">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-440</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" t="n">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-120</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" t="n">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>40</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" t="n">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-90</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" t="n">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-190</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" t="n">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>60</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" t="n">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
         <v>301</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-340</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" t="n">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
         <v>302</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-310</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" t="n">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
         <v>303</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>80</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" t="n">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
         <v>304</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>-660</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" t="n">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
         <v>305</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>-180</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" t="n">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>-310</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" t="n">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
         <v>307</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>40</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" t="n">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
         <v>308</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>-190</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" t="n">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
         <v>309</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>130</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" t="n">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
         <v>310</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>-70</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" t="n">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
         <v>311</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>80</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" t="n">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
         <v>312</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>160</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" t="n">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
         <v>313</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>80</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" t="n">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
         <v>314</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>-230</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" t="n">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
         <v>315</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>220</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" t="n">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
         <v>316</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>-330</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" t="n">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
         <v>317</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>-150</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" t="n">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
         <v>318</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>200</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" t="n">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
         <v>319</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>120</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" t="n">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
         <v>320</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>-250</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" t="n">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
         <v>321</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>-190</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" t="n">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
         <v>322</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>180</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" t="n">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
         <v>323</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>80</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" t="n">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
         <v>324</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>140</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" t="n">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
         <v>325</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>-140</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" t="n">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
         <v>326</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>150</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" t="n">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
         <v>327</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>-10</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" t="n">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
         <v>328</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>80</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" t="n">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
         <v>329</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>0</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" t="n">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
         <v>330</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>50</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" t="n">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
         <v>331</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>-130</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" t="n">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
         <v>332</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>190</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" t="n">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
         <v>333</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>190</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" t="n">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
         <v>334</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>-80</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" t="n">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
         <v>335</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>-290</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" t="n">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
         <v>336</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>-240</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" t="n">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
         <v>337</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>-290</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" t="n">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
         <v>338</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>130</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" t="n">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
         <v>339</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>-30</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" t="n">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
         <v>340</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>360</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" t="n">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
         <v>341</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>20</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" t="n">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
         <v>342</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>40</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" t="n">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
         <v>343</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>70</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" t="n">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
         <v>344</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>50</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" t="n">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
         <v>345</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>-650</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" t="n">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
         <v>346</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>-130</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" t="n">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
         <v>347</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>80</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" t="n">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
         <v>348</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>120</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" t="n">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
         <v>349</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>-30</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" t="n">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
         <v>350</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>-90</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" t="n">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
         <v>351</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>220</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" t="n">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353">
         <v>352</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>280</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" t="n">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354">
         <v>353</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>260</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" t="n">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
         <v>354</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>170</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" t="n">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356">
         <v>355</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>50</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" t="n">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357">
         <v>356</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>-30</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" t="n">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358">
         <v>357</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>-480</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" t="n">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359">
         <v>358</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>-30</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" t="n">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360">
         <v>359</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>170</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" t="n">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361">
         <v>360</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>-110</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" t="n">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362">
         <v>361</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>300</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" t="n">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363">
         <v>362</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>160</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" t="n">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
         <v>363</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>-70</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" t="n">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365">
         <v>364</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>0</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" t="n">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366">
         <v>365</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>260</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" t="n">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367">
         <v>366</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>70</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" t="n">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368">
         <v>367</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>-520</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" t="n">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369">
         <v>368</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>270</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" t="n">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370">
         <v>369</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>210</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" t="n">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371">
         <v>370</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>-210</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" t="n">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372">
         <v>371</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>-110</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" t="n">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373">
         <v>372</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>-750</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" t="n">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374">
         <v>373</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>-370</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" t="n">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375">
         <v>374</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>-290</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" t="n">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376">
         <v>375</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>-120</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" t="n">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377">
         <v>376</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>100</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" t="n">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378">
         <v>377</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>220</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" t="n">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379">
         <v>378</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>-150</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" t="n">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380">
         <v>379</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>-80</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" t="n">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381">
         <v>380</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>-110</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" t="n">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382">
         <v>381</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>100</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" t="n">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383">
         <v>382</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>-400</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" t="n">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384">
         <v>383</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>-420</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" t="n">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385">
         <v>384</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>0</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" t="n">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386">
         <v>385</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>0</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" t="n">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387">
         <v>386</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>-40</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" t="n">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388">
         <v>387</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>260</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" t="n">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389">
         <v>388</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>50</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" t="n">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390">
         <v>389</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>10</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" t="n">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391">
         <v>390</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>-260</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" t="n">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392">
         <v>391</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>-70</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" t="n">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393">
         <v>392</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>-330</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" t="n">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394">
         <v>393</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>-90</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" t="n">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395">
         <v>394</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>70</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" t="n">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396">
         <v>395</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>-190</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" t="n">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397">
         <v>396</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>200</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" t="n">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398">
         <v>397</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>-380</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" t="n">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399">
         <v>398</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>150</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" t="n">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400">
         <v>399</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>170</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" t="n">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401">
         <v>400</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>130</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" t="n">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402">
         <v>401</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>0</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" t="n">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403">
         <v>402</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>-160</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" t="n">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404">
         <v>403</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>-60</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" t="n">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405">
         <v>404</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>-110</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" t="n">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406">
         <v>405</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>110</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" t="n">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407">
         <v>406</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>20</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" t="n">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408">
         <v>407</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>-100</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" t="n">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409">
         <v>408</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>-130</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" t="n">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410">
         <v>409</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>-610</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" t="n">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411">
         <v>410</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>230</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" t="n">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412">
         <v>411</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>280</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" t="n">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413">
         <v>412</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>170</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" t="n">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414">
         <v>413</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>-100</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" t="n">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415">
         <v>414</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>-360</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" t="n">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416">
         <v>415</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>-400</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" t="n">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417">
         <v>416</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>-230</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" t="n">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418">
         <v>417</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>-180</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" t="n">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419">
         <v>418</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>-450</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" t="n">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420">
         <v>419</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>-130</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" t="n">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421">
         <v>420</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>90</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" t="n">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422">
         <v>421</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>-380</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" t="n">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423">
         <v>422</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>270</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" t="n">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424">
         <v>423</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>-440</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" t="n">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425">
         <v>424</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>170</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" t="n">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426">
         <v>425</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>-240</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" t="n">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427">
         <v>426</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>-10</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" t="n">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428">
         <v>427</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>80</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" t="n">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429">
         <v>428</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>60</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" t="n">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430">
         <v>429</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>-240</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" t="n">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431">
         <v>430</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>-180</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" t="n">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432">
         <v>431</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>160</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" t="n">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433">
         <v>432</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>-230</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" t="n">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434">
         <v>433</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>-50</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" t="n">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435">
         <v>434</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>320</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" t="n">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436">
         <v>435</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>50</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" t="n">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437">
         <v>436</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>290</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" t="n">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438">
         <v>437</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>280</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" t="n">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439">
         <v>438</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>50</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" t="n">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440">
         <v>439</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>60</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" t="n">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441">
         <v>440</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>-200</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" t="n">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442">
         <v>441</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>-130</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" t="n">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443">
         <v>442</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>-250</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" t="n">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444">
         <v>443</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>40</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" t="n">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445">
         <v>444</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>-500</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" t="n">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446">
         <v>445</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>300</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" t="n">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447">
         <v>446</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>-90</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" t="n">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448">
         <v>447</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>-280</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" t="n">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449">
         <v>448</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>190</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" t="n">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450">
         <v>449</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>-280</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" t="n">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451">
         <v>450</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>10</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" t="n">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452">
         <v>451</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>-220</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" t="n">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453">
         <v>452</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>350</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" t="n">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454">
         <v>453</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>310</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" t="n">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455">
         <v>454</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>250</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" t="n">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456">
         <v>455</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>260</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" t="n">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457">
         <v>456</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>120</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" t="n">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458">
         <v>457</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>-580</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" t="n">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459">
         <v>458</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>-200</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" t="n">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460">
         <v>459</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>100</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" t="n">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461">
         <v>460</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>90</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" t="n">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462">
         <v>461</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>-60</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" t="n">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463">
         <v>462</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>-80</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" t="n">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464">
         <v>463</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>-100</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" t="n">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465">
         <v>464</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>-420</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" t="n">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466">
         <v>465</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>70</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" t="n">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467">
         <v>466</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>-270</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" t="n">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468">
         <v>467</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>-260</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" t="n">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469">
         <v>468</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>30</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" t="n">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470">
         <v>469</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>-460</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" t="n">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471">
         <v>470</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>-230</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" t="n">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472">
         <v>471</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>240</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" t="n">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473">
         <v>472</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>-120</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" t="n">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474">
         <v>473</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>-230</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" t="n">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475">
         <v>474</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>-440</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" t="n">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476">
         <v>475</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B476">
         <v>290</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" t="n">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477">
         <v>476</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B477">
         <v>250</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" t="n">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478">
         <v>477</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B478">
         <v>280</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" t="n">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479">
         <v>478</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B479">
         <v>-50</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" t="n">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480">
         <v>479</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B480">
         <v>160</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" t="n">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481">
         <v>480</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B481">
         <v>300</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" t="n">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482">
         <v>481</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B482">
         <v>220</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" t="n">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483">
         <v>482</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B483">
         <v>50</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" t="n">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484">
         <v>483</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B484">
         <v>-160</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" t="n">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485">
         <v>484</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B485">
         <v>-140</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" t="n">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486">
         <v>485</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B486">
         <v>200</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" t="n">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487">
         <v>486</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B487">
         <v>-520</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" t="n">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488">
         <v>487</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B488">
         <v>70</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" t="n">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489">
         <v>488</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B489">
         <v>10</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" t="n">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490">
         <v>489</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B490">
         <v>210</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" t="n">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491">
         <v>490</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B491">
         <v>-220</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" t="n">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492">
         <v>491</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B492">
         <v>10</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" t="n">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493">
         <v>492</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B493">
         <v>-360</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" t="n">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494">
         <v>493</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B494">
         <v>220</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" t="n">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495">
         <v>494</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B495">
         <v>330</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" t="n">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496">
         <v>495</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B496">
         <v>50</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" t="n">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497">
         <v>496</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B497">
         <v>70</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" t="n">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498">
         <v>497</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B498">
         <v>270</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" t="n">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499">
         <v>498</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B499">
         <v>140</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" t="n">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500">
         <v>499</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B500">
         <v>-170</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" t="n">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501">
         <v>500</v>
       </c>
-      <c r="B501" t="n">
+      <c r="B501">
         <v>230</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>